--- a/Documentação/negocios/TotemHub - Backlog.xlsx
+++ b/Documentação/negocios/TotemHub - Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Bandtec_TotemHub\Documentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\totemhub\TotemHub\Documentação\negocios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2FB174-A4AB-4231-A7E2-3989F321467E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F78A95-9DC1-49B1-8338-C54F845B1D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="672" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lista de reqs." sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="89">
   <si>
     <t>Essencial</t>
   </si>
@@ -278,13 +278,28 @@
   </si>
   <si>
     <t>Validação de sessão de usuário baseado no login que está acessando a aplicação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criação de sistema CRUD para Gerentes </t>
+  </si>
+  <si>
+    <t>Criação de operações basicas para Gerente</t>
+  </si>
+  <si>
+    <t>UX#007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criação de relatorios com base em funcionamento de maquina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geração de relatorios automatica baseado em funcionamento de maquinas </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -340,6 +355,12 @@
       <u/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -607,7 +628,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -681,6 +702,49 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -693,76 +757,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="3" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -829,6 +829,28 @@
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
@@ -853,15 +875,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>297346</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>130866</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:colOff>392596</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>197541</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -884,8 +906,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1619250" y="714375"/>
-          <a:ext cx="7639050" cy="4067175"/>
+          <a:off x="1672259" y="727214"/>
+          <a:ext cx="7657272" cy="4042327"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -897,15 +919,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>272498</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>97734</xdr:rowOff>
+      <xdr:colOff>578954</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>163995</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>320800</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>174419</xdr:rowOff>
+      <xdr:colOff>627256</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>41898</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -928,7 +950,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9209433" y="495299"/>
+          <a:off x="9515889" y="760343"/>
           <a:ext cx="4860497" cy="3455990"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1008,16 +1030,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9AD0C298-A3C4-4B6D-A826-3F4FDA3611BC}" name="Tabela2" displayName="Tabela2" ref="C4:I31" totalsRowShown="0" headerRowDxfId="0" dataDxfId="8">
-  <autoFilter ref="C4:I31" xr:uid="{E4E6A3FB-FD8D-435E-AFC5-2349C9D21F73}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9AD0C298-A3C4-4B6D-A826-3F4FDA3611BC}" name="Tabela2" displayName="Tabela2" ref="C4:I33" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="C4:I33" xr:uid="{E4E6A3FB-FD8D-435E-AFC5-2349C9D21F73}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{97D85B41-9860-4CD6-B68A-0F415CA5CC92}" name="Estado" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{53156FB0-92E5-4B86-BE2B-46C7F61C34DC}" name="Artefato de referência" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{FB97AF01-D5F2-4F8A-86F7-BCD92C00AE2F}" name="Requisito" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{AB0A7A6A-87D8-4F19-BC58-69B293139831}" name="Descrição do requisito" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{0A12B184-8A4D-426F-9E70-E9503B1100F2}" name="Essencial" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{B79ECEB9-B207-4E45-873B-790E6DCAEC3A}" name="Importante" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{B0EE7D0E-8FE0-42D4-83DE-B48C430B7A72}" name="Desejavel" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{97D85B41-9860-4CD6-B68A-0F415CA5CC92}" name="Estado" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{53156FB0-92E5-4B86-BE2B-46C7F61C34DC}" name="Artefato de referência" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{FB97AF01-D5F2-4F8A-86F7-BCD92C00AE2F}" name="Requisito" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{AB0A7A6A-87D8-4F19-BC58-69B293139831}" name="Descrição do requisito" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{0A12B184-8A4D-426F-9E70-E9503B1100F2}" name="Essencial" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{B79ECEB9-B207-4E45-873B-790E6DCAEC3A}" name="Importante" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{B0EE7D0E-8FE0-42D4-83DE-B48C430B7A72}" name="Desejavel" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1362,12 +1384,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="7:23" s="18" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="7:23" ht="31.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="G2" s="33" t="s">
+    <row r="2" spans="7:23" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G2" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="34"/>
-      <c r="I2" s="35"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="50"/>
       <c r="W2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1637,8 +1659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D365EA23-5304-45D0-B9B5-2768DD50B9BF}">
   <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="17" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1646,7 +1668,7 @@
     <col min="1" max="2" width="8.625" style="15"/>
     <col min="3" max="3" width="13.625" style="25" customWidth="1"/>
     <col min="4" max="4" width="24.125" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.125" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.375" style="25" customWidth="1"/>
     <col min="6" max="6" width="45.25" style="25" customWidth="1"/>
     <col min="7" max="7" width="13.625" style="25" customWidth="1"/>
     <col min="8" max="8" width="14.375" style="25" customWidth="1"/>
@@ -1663,16 +1685,16 @@
       <c r="H1" s="22"/>
       <c r="I1" s="22"/>
     </row>
-    <row r="2" spans="2:20" s="15" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="36" t="s">
+    <row r="2" spans="2:20" s="15" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
     </row>
     <row r="3" spans="2:20" s="15" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="22"/>
@@ -1682,49 +1704,49 @@
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
       <c r="I3" s="22"/>
-      <c r="T3" s="51"/>
+      <c r="T3" s="47"/>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" s="16"/>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="G4" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="49" t="s">
+      <c r="H4" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="49" t="s">
+      <c r="I4" s="45" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:20" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="17"/>
-      <c r="C5" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="42" t="s">
+      <c r="C5" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="43"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
     </row>
     <row r="6" spans="2:20" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="17"/>
@@ -1740,27 +1762,27 @@
       <c r="F6" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="43"/>
+      <c r="G6" s="39"/>
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
     </row>
     <row r="7" spans="2:20" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="17"/>
-      <c r="C7" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="42" t="s">
+      <c r="C7" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="42" t="s">
+      <c r="F7" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
     </row>
     <row r="8" spans="2:20" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="17"/>
@@ -1776,27 +1798,27 @@
       <c r="F8" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="43"/>
+      <c r="G8" s="39"/>
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
     </row>
     <row r="9" spans="2:20" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="17"/>
-      <c r="C9" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="42" t="s">
+      <c r="C9" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="44" t="s">
+      <c r="F9" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="43"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
     </row>
     <row r="10" spans="2:20" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="17"/>
@@ -1809,35 +1831,35 @@
       <c r="E10" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="F10" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="43"/>
+      <c r="G10" s="39"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
     </row>
     <row r="11" spans="2:20" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="17"/>
-      <c r="C11" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="42" t="s">
+      <c r="C11" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="44" t="s">
+      <c r="F11" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="43"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
     </row>
     <row r="12" spans="2:20" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="17"/>
       <c r="C12" s="27" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D12" s="27" t="s">
         <v>34</v>
@@ -1845,35 +1867,35 @@
       <c r="E12" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="38" t="s">
+      <c r="F12" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="43"/>
+      <c r="G12" s="39"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
     </row>
     <row r="13" spans="2:20" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="17"/>
-      <c r="C13" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="42" t="s">
+      <c r="C13" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="44" t="s">
+      <c r="F13" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="43"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
     </row>
     <row r="14" spans="2:20" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="17"/>
       <c r="C14" s="27" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D14" s="27" t="s">
         <v>34</v>
@@ -1881,67 +1903,67 @@
       <c r="E14" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="38" t="s">
+      <c r="F14" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="43"/>
+      <c r="G14" s="39"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
     </row>
     <row r="15" spans="2:20" s="21" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="44" t="s">
+      <c r="E15" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="44" t="s">
+      <c r="F15" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="G15" s="45"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
     </row>
     <row r="16" spans="2:20" s="21" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="38" t="s">
+      <c r="F16" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="G16" s="45"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
     </row>
     <row r="17" spans="3:9" s="15" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="42" t="s">
+      <c r="C17" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="42" t="s">
+      <c r="E17" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="44" t="s">
+      <c r="F17" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="43"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
     </row>
     <row r="18" spans="3:9" s="15" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="27" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D18" s="27" t="s">
         <v>33</v>
@@ -1949,33 +1971,33 @@
       <c r="E18" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="38" t="s">
+      <c r="F18" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="43"/>
+      <c r="G18" s="39"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
     </row>
     <row r="19" spans="3:9" s="15" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="42" t="s">
+      <c r="C19" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="42" t="s">
+      <c r="E19" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="42" t="s">
+      <c r="F19" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="G19" s="42"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="42"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="38"/>
     </row>
     <row r="20" spans="3:9" s="15" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="27" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D20" s="27" t="s">
         <v>34</v>
@@ -1983,29 +2005,29 @@
       <c r="E20" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="38" t="s">
+      <c r="F20" s="34" t="s">
         <v>81</v>
       </c>
       <c r="G20" s="27"/>
-      <c r="H20" s="46"/>
+      <c r="H20" s="42"/>
       <c r="I20" s="27"/>
     </row>
     <row r="21" spans="3:9" s="15" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="42" t="s">
+      <c r="C21" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="42" t="s">
+      <c r="E21" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="G21" s="42"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="42"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="38"/>
     </row>
     <row r="22" spans="3:9" s="15" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="27" t="s">
@@ -2022,24 +2044,24 @@
       </c>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
-      <c r="I22" s="37"/>
+      <c r="I22" s="33"/>
     </row>
     <row r="23" spans="3:9" s="15" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="42" t="s">
+      <c r="C23" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="44" t="s">
+      <c r="E23" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="F23" s="44" t="s">
+      <c r="F23" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="37"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="33"/>
     </row>
     <row r="24" spans="3:9" s="15" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="27" t="s">
@@ -2054,26 +2076,26 @@
       <c r="F24" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="G24" s="43"/>
+      <c r="G24" s="39"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
     </row>
     <row r="25" spans="3:9" s="15" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="42" t="s">
+      <c r="C25" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="42" t="s">
+      <c r="E25" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="44" t="s">
+      <c r="F25" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="G25" s="43"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
     </row>
     <row r="26" spans="3:9" s="15" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="27" t="s">
@@ -2085,29 +2107,29 @@
       <c r="E26" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="F26" s="38" t="s">
+      <c r="F26" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="G26" s="43"/>
+      <c r="G26" s="39"/>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
     </row>
     <row r="27" spans="3:9" s="15" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="42" t="s">
+      <c r="C27" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="E27" s="42" t="s">
+      <c r="E27" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="F27" s="44" t="s">
+      <c r="F27" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="G27" s="43"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="50"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="46"/>
     </row>
     <row r="28" spans="3:9" s="15" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="27" t="s">
@@ -2119,40 +2141,40 @@
       <c r="E28" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="F28" s="38" t="s">
+      <c r="F28" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="G28" s="43"/>
+      <c r="G28" s="39"/>
       <c r="H28" s="27"/>
-      <c r="I28" s="47"/>
+      <c r="I28" s="43"/>
     </row>
     <row r="29" spans="3:9" s="15" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="42" t="s">
+      <c r="C29" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="42" t="s">
+      <c r="E29" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="F29" s="44" t="s">
+      <c r="F29" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="G29" s="42"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="42"/>
-    </row>
-    <row r="30" spans="3:9" s="15" customFormat="1" ht="41.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G29" s="38"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="38"/>
+    </row>
+    <row r="30" spans="3:9" s="15" customFormat="1" ht="41.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C30" s="23"/>
-      <c r="D30" s="39"/>
+      <c r="D30" s="35"/>
       <c r="E30" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="F30" s="40" t="s">
+      <c r="F30" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="G30" s="41"/>
+      <c r="G30" s="37"/>
       <c r="H30" s="30"/>
       <c r="I30" s="30"/>
     </row>
@@ -2169,23 +2191,39 @@
       <c r="H31" s="26"/>
       <c r="I31" s="30"/>
     </row>
-    <row r="32" spans="3:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-    </row>
-    <row r="33" spans="3:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
+    <row r="32" spans="3:9" s="15" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="G32" s="39"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+    </row>
+    <row r="33" spans="3:9" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="F33" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="G33" s="39"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
     </row>
     <row r="34" spans="3:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="24"/>
@@ -2200,6 +2238,7 @@
   <mergeCells count="1">
     <mergeCell ref="C2:I2"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
@@ -2210,16 +2249,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288FC3E7-48B0-4EA1-84BD-030D133D4615}">
-  <dimension ref="A1"/>
+  <dimension ref="S27"/>
   <sheetViews>
-    <sheetView topLeftCell="C8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="W15" sqref="W15"/>
+    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="27" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S27" s="52"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
